--- a/PVB Stage Applicatie/App_Data/ExcelTemplates/KoppelingInvoegen.xlsx
+++ b/PVB Stage Applicatie/App_Data/ExcelTemplates/KoppelingInvoegen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>StudentNummer</t>
   </si>
@@ -23,13 +23,22 @@
   </si>
   <si>
     <t>Begeleider Email</t>
+  </si>
+  <si>
+    <t>WAG</t>
+  </si>
+  <si>
+    <t>a.tangelder@bizzdesign.nd</t>
+  </si>
+  <si>
+    <t>0213120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +53,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -87,10 +102,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -421,11 +437,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QTTPSjB5PUfrjmEY8bmHZxERNj9G2mRf4cTnCH+F/vTVGsMyxCAAjHK1pmVSA6h3twt7Ck+ouITExCWU4HJlag==" saltValue="Uu4Q+Cxfv5GnENa5ztqCKA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:C999" name="Range1"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>